--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_34.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3289210.135373114</v>
+        <v>3286192.544972177</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>22.31124795984768</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>79.91965692568634</v>
       </c>
     </row>
     <row r="3">
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>223.82438355203</v>
+        <v>40.91143958001572</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,7 +902,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>238.5110202991092</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>5.340253406636493</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>67.83111579845512</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>108.0606241613723</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>181.1873928224955</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>128.7835007017904</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>205.3743261851595</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274066</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>70.78408973756278</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W13" t="n">
-        <v>176.9761739583563</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>143.1845037767897</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>58.32646557497963</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.8145582609185</v>
+        <v>139.6534694429698</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>101.1065179454915</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>10.63711342042222</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.876045741713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>411.9645167896915</v>
@@ -2369,7 +2369,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385022</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>54.92373603571897</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>27.24542190121309</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.237938656055</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>143.8290739517853</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836034</v>
       </c>
       <c r="T28" t="n">
-        <v>59.48755732533474</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="29">
@@ -2849,7 +2849,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,10 +2953,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>144.4294688977666</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,19 +3004,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>149.7290349721169</v>
       </c>
     </row>
     <row r="32">
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3205,7 +3205,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>86.24824990762829</v>
       </c>
       <c r="U34" t="n">
-        <v>29.6783743579539</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>95.67215651543233</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>135.4958706305991</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,13 +3506,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505273973</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3664,13 +3664,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3721,13 +3721,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>110.9763618019594</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>33.35146980185922</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274208</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,13 +3794,13 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>58.92953576217565</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,13 +3955,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>103.0404762872349</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3986,16 +3986,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I44" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>37.75862782377408</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,19 +4183,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>191.5549554302052</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2674.612476917366</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2674.612476917366</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2674.612476917366</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2420.850691555458</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>2089.787804211887</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W2" t="n">
-        <v>1737.019148941773</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X2" t="n">
-        <v>1363.553390680693</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.553390680693</v>
+        <v>1164.312709242129</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4492,43 +4492,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="U4" t="n">
-        <v>274.7355609638946</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V4" t="n">
-        <v>274.7355609638946</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W4" t="n">
-        <v>274.7355609638946</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1447.000728742896</v>
+        <v>1919.063478780785</v>
       </c>
       <c r="C5" t="n">
-        <v>1078.038211802484</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D5" t="n">
-        <v>719.7725131957338</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224075</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2636.726206188477</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>2305.663318844906</v>
       </c>
       <c r="W5" t="n">
-        <v>1837.140060718708</v>
+        <v>2305.663318844906</v>
       </c>
       <c r="X5" t="n">
-        <v>1837.140060718708</v>
+        <v>2305.663318844906</v>
       </c>
       <c r="Y5" t="n">
-        <v>1447.000728742896</v>
+        <v>2305.663318844906</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4641,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.9282174162495</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>588.0044362889289</v>
+        <v>1684.117239186543</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>1315.154722246131</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>956.8890236393806</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>571.1007710411363</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>564.1552702919329</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036446</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304456</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V8" t="n">
-        <v>1717.512263598976</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="W8" t="n">
-        <v>1364.743608328862</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X8" t="n">
-        <v>1364.743608328862</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="Y8" t="n">
-        <v>974.6042763530506</v>
+        <v>2070.717079250664</v>
       </c>
     </row>
     <row r="9">
@@ -4881,10 +4881,10 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
         <v>670.8219208598709</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>184.0273259635871</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>184.0273259635871</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>184.0273259635871</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>184.0273259635871</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>184.0273259635871</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036446</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005477</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>184.0273259635871</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>184.0273259635871</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.0273259635871</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5018,22 +5018,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,22 +5042,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5072,10 +5072,10 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5124,19 +5124,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864553</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>1818.397748747283</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>582.2416896507652</v>
+        <v>991.0842369787841</v>
       </c>
       <c r="C13" t="n">
-        <v>413.3055067228584</v>
+        <v>822.1480540508774</v>
       </c>
       <c r="D13" t="n">
-        <v>413.3055067228584</v>
+        <v>822.1480540508774</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>674.2349604684844</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705741</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903948</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383382</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1427.41719001491</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1427.41719001491</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1427.41719001491</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1427.41719001491</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.787631771461</v>
+        <v>1172.732701809024</v>
       </c>
       <c r="W13" t="n">
-        <v>1031.023819692313</v>
+        <v>1172.732701809024</v>
       </c>
       <c r="X13" t="n">
-        <v>803.0342687942954</v>
+        <v>1172.732701809024</v>
       </c>
       <c r="Y13" t="n">
-        <v>582.2416896507652</v>
+        <v>1172.732701809024</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,34 +5261,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5321,7 +5321,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5358,13 +5358,13 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>326.2492756170072</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>940.1463453738959</v>
       </c>
       <c r="M15" t="n">
-        <v>1564.731711769082</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
         <v>2051.878056918008</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>359.1696912903951</v>
+        <v>391.9645427683688</v>
       </c>
       <c r="C16" t="n">
-        <v>359.1696912903951</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V16" t="n">
-        <v>820.5263570570736</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="W16" t="n">
-        <v>761.6107352641649</v>
+        <v>619.9540936663861</v>
       </c>
       <c r="X16" t="n">
-        <v>761.6107352641649</v>
+        <v>391.9645427683688</v>
       </c>
       <c r="Y16" t="n">
-        <v>540.8181561206347</v>
+        <v>391.9645427683688</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5537,28 +5537,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1470.815640507006</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N18" t="n">
-        <v>1800.678268171039</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O18" t="n">
-        <v>2080.218333389736</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>964.1357418247858</v>
+        <v>705.247117931376</v>
       </c>
       <c r="C19" t="n">
-        <v>795.1995588968789</v>
+        <v>536.3109350034691</v>
       </c>
       <c r="D19" t="n">
-        <v>795.1995588968789</v>
+        <v>386.1942955911334</v>
       </c>
       <c r="E19" t="n">
-        <v>647.2864653144858</v>
+        <v>238.2812020087403</v>
       </c>
       <c r="F19" t="n">
-        <v>500.3965178165754</v>
+        <v>238.2812020087403</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5701,22 +5701,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V19" t="n">
-        <v>964.1357418247858</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W19" t="n">
-        <v>964.1357418247858</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="X19" t="n">
-        <v>964.1357418247858</v>
+        <v>705.247117931376</v>
       </c>
       <c r="Y19" t="n">
-        <v>964.1357418247858</v>
+        <v>705.247117931376</v>
       </c>
     </row>
     <row r="20">
@@ -5729,67 +5729,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,22 +5826,22 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341675</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O21" t="n">
         <v>2331.418122136705</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>412.2823606383756</v>
+        <v>3858.289776731458</v>
       </c>
       <c r="C22" t="n">
-        <v>412.2823606383756</v>
+        <v>3756.161980826921</v>
       </c>
       <c r="D22" t="n">
-        <v>412.2823606383756</v>
+        <v>3606.045341414585</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>3606.045341414585</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.921157035281</v>
+        <v>4549.859459491669</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.921157035281</v>
+        <v>4549.859459491669</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.921157035281</v>
+        <v>4260.730820705227</v>
       </c>
       <c r="V22" t="n">
-        <v>933.2366688293938</v>
+        <v>4260.730820705227</v>
       </c>
       <c r="W22" t="n">
-        <v>643.8194987924333</v>
+        <v>4260.730820705227</v>
       </c>
       <c r="X22" t="n">
-        <v>633.0749397819058</v>
+        <v>4260.730820705227</v>
       </c>
       <c r="Y22" t="n">
-        <v>412.2823606383756</v>
+        <v>4039.938241561697</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5984,16 +5984,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6002,37 +6002,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059517</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2338.698370483031</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>709.4512536188996</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C25" t="n">
-        <v>709.4512536188996</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D25" t="n">
-        <v>709.4512536188996</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>561.5381600365065</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>414.6482125385961</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1360.320538936684</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247865</v>
+        <v>1360.320538936684</v>
       </c>
       <c r="U25" t="n">
-        <v>964.1357418247865</v>
+        <v>1071.191900150243</v>
       </c>
       <c r="V25" t="n">
-        <v>709.4512536188996</v>
+        <v>816.5074119443557</v>
       </c>
       <c r="W25" t="n">
-        <v>709.4512536188996</v>
+        <v>816.5074119443557</v>
       </c>
       <c r="X25" t="n">
-        <v>709.4512536188996</v>
+        <v>816.5074119443557</v>
       </c>
       <c r="Y25" t="n">
-        <v>709.4512536188996</v>
+        <v>595.7148328008255</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6239,37 +6239,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277034</v>
+        <v>316.9584588710876</v>
       </c>
       <c r="L27" t="n">
-        <v>901.6749225845922</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M27" t="n">
-        <v>1208.995055864554</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N27" t="n">
-        <v>1538.857683528587</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183167</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4035.871893885154</v>
+        <v>967.1285778917488</v>
       </c>
       <c r="C28" t="n">
-        <v>4035.871893885154</v>
+        <v>821.8466850111575</v>
       </c>
       <c r="D28" t="n">
-        <v>3885.755254472819</v>
+        <v>671.7300455988217</v>
       </c>
       <c r="E28" t="n">
-        <v>3885.755254472819</v>
+        <v>523.8169520164284</v>
       </c>
       <c r="F28" t="n">
-        <v>3738.865306974908</v>
+        <v>376.9270045185179</v>
       </c>
       <c r="G28" t="n">
-        <v>3570.689985294729</v>
+        <v>208.7516828383385</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294729</v>
+        <v>208.7516828383385</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014294</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014294</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="T28" t="n">
-        <v>4800.766131271532</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="U28" t="n">
-        <v>4800.766131271532</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="V28" t="n">
-        <v>4546.081643065645</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="W28" t="n">
-        <v>4256.664473028684</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="X28" t="n">
-        <v>4256.664473028684</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="Y28" t="n">
-        <v>4035.871893885154</v>
+        <v>967.1285778917488</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,67 +6446,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341676</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>841.8631140141293</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>799.8610847926851</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C31" t="n">
-        <v>799.8610847926851</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D31" t="n">
-        <v>653.9727323706986</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E31" t="n">
-        <v>506.0596387883055</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6637,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557903</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557903</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>1209.499100520942</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X31" t="n">
-        <v>981.5095496229249</v>
+        <v>727.1135926675564</v>
       </c>
       <c r="Y31" t="n">
-        <v>981.5095496229249</v>
+        <v>575.8721432007717</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6722,28 +6722,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341676</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>731.6365520183392</v>
+        <v>991.0842369787848</v>
       </c>
       <c r="C34" t="n">
-        <v>562.7003690904323</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="D34" t="n">
-        <v>562.7003690904323</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E34" t="n">
-        <v>562.7003690904323</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6874,34 +6874,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1164.055751909234</v>
+        <v>1211.876816122315</v>
       </c>
       <c r="U34" t="n">
-        <v>1134.077595992109</v>
+        <v>1211.876816122315</v>
       </c>
       <c r="V34" t="n">
-        <v>1134.077595992109</v>
+        <v>1211.876816122315</v>
       </c>
       <c r="W34" t="n">
-        <v>1134.077595992109</v>
+        <v>1211.876816122315</v>
       </c>
       <c r="X34" t="n">
-        <v>1134.077595992109</v>
+        <v>1211.876816122315</v>
       </c>
       <c r="Y34" t="n">
-        <v>913.2850168485789</v>
+        <v>991.0842369787848</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6926,22 +6926,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6950,16 +6950,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690734</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409607</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748356</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.0874327429</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769785</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.62619637397</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805658</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098442</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J36" t="n">
-        <v>2375.989236263799</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K36" t="n">
-        <v>2525.058920465859</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L36" t="n">
-        <v>2771.824048372323</v>
+        <v>3138.955990222747</v>
       </c>
       <c r="M36" t="n">
-        <v>3079.144181652285</v>
+        <v>3907.324136615208</v>
       </c>
       <c r="N36" t="n">
-        <v>3691.25891361371</v>
+        <v>4237.18676427924</v>
       </c>
       <c r="O36" t="n">
-        <v>4360.722674916369</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698579</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098068</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021846</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641233</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.77681940949</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681289</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475756</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710802</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="37">
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>488.6586744753695</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C37" t="n">
-        <v>488.6586744753695</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D37" t="n">
-        <v>488.6586744753695</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E37" t="n">
-        <v>340.7455808929764</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F37" t="n">
-        <v>193.855633395066</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>193.855633395066</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>193.855633395066</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7111,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247865</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>964.1357418247865</v>
+        <v>1362.051754769418</v>
       </c>
       <c r="V37" t="n">
-        <v>709.4512536188996</v>
+        <v>1107.367266563532</v>
       </c>
       <c r="W37" t="n">
-        <v>709.4512536188996</v>
+        <v>817.9500965265709</v>
       </c>
       <c r="X37" t="n">
-        <v>709.4512536188996</v>
+        <v>817.9500965265709</v>
       </c>
       <c r="Y37" t="n">
-        <v>488.6586744753695</v>
+        <v>597.1575173830407</v>
       </c>
     </row>
     <row r="38">
@@ -7151,31 +7151,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080546</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822452</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7184,10 +7184,10 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899127</v>
@@ -7196,10 +7196,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>2525.058920465859</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>2771.824048372323</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M39" t="n">
-        <v>3540.192194764784</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N39" t="n">
-        <v>4289.159124556163</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O39" t="n">
-        <v>4568.69918977486</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>4773.72167055707</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7348,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247865</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>675.0071030383447</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324578</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>130.9054447954972</v>
+        <v>843.0058084120794</v>
       </c>
       <c r="X40" t="n">
-        <v>130.9054447954972</v>
+        <v>615.0162575140621</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>394.223678370532</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155903</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805483</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822476</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277034</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L42" t="n">
-        <v>553.0935746802515</v>
+        <v>3138.955990222747</v>
       </c>
       <c r="M42" t="n">
-        <v>1321.461721072713</v>
+        <v>3907.324136615208</v>
       </c>
       <c r="N42" t="n">
-        <v>1651.324348736746</v>
+        <v>4237.18676427924</v>
       </c>
       <c r="O42" t="n">
-        <v>2320.788110039405</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>564.4843764226426</v>
+        <v>3984.88523218974</v>
       </c>
       <c r="C43" t="n">
-        <v>395.5481934947357</v>
+        <v>3925.360448591583</v>
       </c>
       <c r="D43" t="n">
-        <v>395.5481934947357</v>
+        <v>3775.243809179247</v>
       </c>
       <c r="E43" t="n">
-        <v>247.6350999123426</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="U43" t="n">
-        <v>1298.996260473455</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="V43" t="n">
-        <v>1194.91497129443</v>
+        <v>4495.094981370231</v>
       </c>
       <c r="W43" t="n">
-        <v>1194.91497129443</v>
+        <v>4205.67781133327</v>
       </c>
       <c r="X43" t="n">
-        <v>966.9254203964125</v>
+        <v>4205.67781133327</v>
       </c>
       <c r="Y43" t="n">
-        <v>746.1328412528824</v>
+        <v>3984.88523218974</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028589</v>
@@ -7661,10 +7661,10 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.627437207831</v>
@@ -7679,19 +7679,19 @@
         <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341676</v>
+        <v>921.193690363625</v>
       </c>
       <c r="M45" t="n">
-        <v>841.8631140141293</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1336.046207783208</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2005.509969085867</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4036.934124172603</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="C46" t="n">
-        <v>3867.997941244696</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="D46" t="n">
-        <v>3867.997941244696</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="E46" t="n">
-        <v>3867.997941244696</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F46" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G46" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688123</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799415</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471244</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974672</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980069</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585752</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="S46" t="n">
-        <v>4667.36471904439</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="T46" t="n">
-        <v>4667.36471904439</v>
+        <v>1275.130855347413</v>
       </c>
       <c r="U46" t="n">
-        <v>4667.36471904439</v>
+        <v>1275.130855347413</v>
       </c>
       <c r="V46" t="n">
-        <v>4667.36471904439</v>
+        <v>1020.446367141527</v>
       </c>
       <c r="W46" t="n">
-        <v>4667.36471904439</v>
+        <v>731.029197104566</v>
       </c>
       <c r="X46" t="n">
-        <v>4439.375168146373</v>
+        <v>503.0396462065487</v>
       </c>
       <c r="Y46" t="n">
-        <v>4218.582589002843</v>
+        <v>282.2470670630186</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,13 +8304,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992664</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050815</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8772,22 +8772,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>308.1251096272036</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9006,16 +9006,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>38.86002301949898</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>158.8724419039331</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9243,28 +9243,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>32.92248665775634</v>
+        <v>15.83804904622852</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,19 +9480,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>423.3376789165113</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>199.7396287231151</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627456</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9954,28 +9954,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>29.47535963978214</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>199.7396287231148</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,25 +10194,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>360.5026862907247</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>41.75994765618367</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.096615172073</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10428,28 +10428,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>423.3376789165111</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>242.9997743936049</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599039</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10668,25 +10668,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>285.1031356539316</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10911,19 +10911,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>423.3376789165111</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>76.43196988338491</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714825</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>18.73797368291309</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11309,13 +11309,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627456</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599067</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,16 +11385,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>165.9802687929757</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>39.18026266622991</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836031</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583891</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985772</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>109.5468243782347</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>24.06231732183809</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23668,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>228.1965327616114</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>26.67901020245907</v>
+        <v>26.84009902040776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,19 +23941,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>66.14030315313629</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24181,16 +24181,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>215.0725419686149</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>111.5698324276586</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>170.6753880823902</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>23.4177471468426</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>162.0600037330545</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985775</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,10 +24841,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>4.186004120445745</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,19 +24892,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>68.85561837997793</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>135.299311150761</v>
       </c>
       <c r="U34" t="n">
-        <v>256.5589780406235</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>14.74708894883963</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,22 +25357,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>150.7414817679783</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25552,13 +25552,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,13 +25609,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>175.5466365346316</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>185.2331835502356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>108.3172853364522</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25843,13 +25843,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>149.0971670365931</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>142.0733523581632</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26038,10 +26038,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,19 +26071,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>6.365854553398009</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>718110.1834587394</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>718110.1834587392</v>
+        <v>718110.1834587394</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>718110.1834587393</v>
+        <v>718110.1834587394</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>718110.1834587394</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>718110.1834587394</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>718110.1834587394</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>718110.1834587393</v>
+        <v>718110.1834587394</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>718110.1834587392</v>
+        <v>718110.1834587394</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>718110.1834587393</v>
+        <v>718110.1834587394</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.504384641</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846411</v>
       </c>
       <c r="E2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="F2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="G2" t="n">
         <v>664749.4015541048</v>
       </c>
-      <c r="F2" t="n">
-        <v>664749.401554105</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>664749.4015541046</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="J2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="K2" t="n">
         <v>664749.4015541045</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>664749.4015541046</v>
       </c>
-      <c r="J2" t="n">
-        <v>664749.4015541049</v>
-      </c>
-      <c r="K2" t="n">
-        <v>664749.4015541049</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>664749.4015541048</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>664749.4015541046</v>
       </c>
-      <c r="N2" t="n">
-        <v>664749.4015541045</v>
-      </c>
       <c r="O2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.4015541046</v>
       </c>
       <c r="P2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541052</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,10 +26381,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143921</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430942</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430943</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.50065430942</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.50065430945</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.50065430941</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430941</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26470,31 +26470,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="H5" t="n">
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26506,7 +26506,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871667</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-131301.1966350682</v>
+        <v>-131716.4111445358</v>
       </c>
       <c r="C6" t="n">
-        <v>458666.6825794764</v>
+        <v>458251.4680700089</v>
       </c>
       <c r="D6" t="n">
-        <v>458666.6825794762</v>
+        <v>458251.468070009</v>
       </c>
       <c r="E6" t="n">
-        <v>32890.53847418273</v>
+        <v>32556.36950705299</v>
       </c>
       <c r="F6" t="n">
-        <v>558050.5749510789</v>
+        <v>557716.4059839492</v>
       </c>
       <c r="G6" t="n">
-        <v>558050.5749510785</v>
+        <v>557716.4059839491</v>
       </c>
       <c r="H6" t="n">
-        <v>558050.5749510783</v>
+        <v>557716.4059839491</v>
       </c>
       <c r="I6" t="n">
-        <v>558050.5749510785</v>
+        <v>557716.4059839491</v>
       </c>
       <c r="J6" t="n">
-        <v>381627.3557584858</v>
+        <v>381293.186791356</v>
       </c>
       <c r="K6" t="n">
-        <v>558050.5749510787</v>
+        <v>557716.4059839488</v>
       </c>
       <c r="L6" t="n">
-        <v>558050.5749510786</v>
+        <v>557716.405983949</v>
       </c>
       <c r="M6" t="n">
-        <v>423249.5597172414</v>
+        <v>422915.3907501119</v>
       </c>
       <c r="N6" t="n">
-        <v>558050.5749510785</v>
+        <v>557716.405983949</v>
       </c>
       <c r="O6" t="n">
-        <v>558050.5749510787</v>
+        <v>557716.405983949</v>
       </c>
       <c r="P6" t="n">
-        <v>558050.5749510787</v>
+        <v>557716.4059839495</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170868</v>
@@ -26750,34 +26750,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26808,13 +26808,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26826,7 +26826,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253574</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -27382,13 +27382,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>32.16715461496403</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>306.3182817303672</v>
       </c>
     </row>
     <row r="3">
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>62.45749068994775</v>
+        <v>245.370434661962</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>143.4193497731526</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>245.8839141016528</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,16 +27828,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>157.878539590582</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>257.2122676096352</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>232.5967771982995</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448612</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>38.5263015572605</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>19.66077927292474</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>-1.022907612492248e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30469,16 +30469,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30514,19 +30514,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>-8.476429682855238e-13</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>365.2844632307151</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262939</v>
@@ -35492,22 +35492,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>362.6699330377951</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>515.2185245587283</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556563</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187486</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>189.4354616074382</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>492.0670153019459</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>240.015901589281</v>
+        <v>222.9314639777532</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>756.5322523145243</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>536.1008625915819</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>621.6037559756874</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>287.7526615081892</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>180.0507982277214</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>482.1033309642231</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556542</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187465</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>693.6972596887376</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>324.1236498972918</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37008,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415071</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>450.0931893251296</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37245,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>618.2977090519446</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178378</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37482,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>358.7956721244931</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37719,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37783,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>267.9956786389375</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
         <v>776.1294408004662</v>
@@ -37871,16 +37871,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178378</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37956,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38020,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>499.1748421909886</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178378</v>
+        <v>560.0354988619143</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299157</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38193,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3361722.214636981</v>
+        <v>3354705.199745271</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800623</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>40.62363183383287</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>240.7813801373067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>1.264003285459112</v>
       </c>
       <c r="X4" t="n">
-        <v>12.2404937362352</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>174.9723186877832</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>52.24257983163366</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>26.71728140711184</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>97.63529092888696</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448611</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>303.8799945553306</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250814</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229324</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>162.5776147681375</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>115.2741345058927</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274091</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>60.65811021293104</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>115.526976800218</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>140.8721210574296</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>179.6993907491944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,13 +1849,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>167.7636859874421</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>171.3670018284229</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>37.03135913814508</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>69.81394759925985</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896948</v>
+        <v>411.9645167896924</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>16.27740963505639</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>15.62652677326797</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560559</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>32.5039555640847</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>47.27820527287759</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>31.59881272114104</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3483,13 +3483,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>146.2787299119464</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>231.9974264862784</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3903,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>82.70841085353291</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>206.806426921486</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4140,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>20.3772922050065</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>210.9685212521341</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1328.4755035807</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>923.9266662611112</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>512.9407614715037</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>94.97695336969059</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>94.97695336969059</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1958.288858935031</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1715.075343644822</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>426.3476790823676</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C4" t="n">
-        <v>426.3476790823676</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>426.3476790823676</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>426.3476790823676</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>426.3476790823676</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694738</v>
+        <v>726.852213211021</v>
       </c>
       <c r="X4" t="n">
-        <v>426.3476790823676</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y4" t="n">
-        <v>426.3476790823676</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1494.518401093285</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C5" t="n">
-        <v>1494.518401093285</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D5" t="n">
-        <v>1136.252702486534</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2589.3501188905</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2589.3501188905</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2335.588333528591</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2335.588333528591</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="X5" t="n">
-        <v>1881.118241157406</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="Y5" t="n">
-        <v>1881.118241157406</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="6">
@@ -4628,34 +4628,34 @@
         <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.942782082032</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="W7" t="n">
-        <v>671.7249121235795</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="X7" t="n">
-        <v>443.7353612255621</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.942782082032</v>
+        <v>713.5189870075369</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1376.372217881286</v>
+        <v>159.5099885583426</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>159.5099885583426</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>159.5099885583426</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>159.5099885583426</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>152.5644878091392</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.9429818203645</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533145</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733133</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224083</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642691</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791255</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018225</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018225</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018225</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018225</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656317</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>2136.437816206488</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2136.437816206488</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1762.972057945408</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y8" t="n">
-        <v>1762.972057945408</v>
+        <v>546.1098286224644</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.9429818203645</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204945</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615932</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598696</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.9429818203645</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>53.9429818203645</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>53.9429818203645</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>53.9429818203645</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>53.9429818203645</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.9429818203645</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.9429818203645</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.9429818203645</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.9429818203645</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866328</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477914</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658215</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502507</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.261789359491</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064352</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064352</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064352</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064352</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T10" t="n">
-        <v>563.9091713093267</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U10" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="V10" t="n">
-        <v>274.7355609638946</v>
+        <v>444.0275768541694</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.9429818203645</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5020,70 +5020,70 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614725</v>
@@ -5123,22 +5123,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701563</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L12" t="n">
-        <v>816.7950850315606</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M12" t="n">
-        <v>1124.115218311522</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1453.977845975555</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
         <v>97.21709146028587</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347409</v>
+        <v>1237.725442076555</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609669</v>
+        <v>948.5968032901133</v>
       </c>
       <c r="V13" t="n">
-        <v>731.31772835508</v>
+        <v>693.9123150842264</v>
       </c>
       <c r="W13" t="n">
-        <v>441.9005583181194</v>
+        <v>693.9123150842264</v>
       </c>
       <c r="X13" t="n">
-        <v>213.9110074201021</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="14">
@@ -5257,16 +5257,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5278,28 +5278,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
@@ -5317,7 +5317,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5360,22 +5360,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701563</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766205</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1908.095276920733</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2187.63534213943</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2392.65782292164</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>392.0201325405893</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C16" t="n">
-        <v>392.0201325405893</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028587</v>
@@ -5436,16 +5436,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>755.1831334811264</v>
+        <v>932.915773487779</v>
       </c>
       <c r="W16" t="n">
-        <v>755.1831334811264</v>
+        <v>643.4986034508183</v>
       </c>
       <c r="X16" t="n">
-        <v>755.1831334811264</v>
+        <v>415.509052552801</v>
       </c>
       <c r="Y16" t="n">
-        <v>573.668597370829</v>
+        <v>415.509052552801</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5536,31 +5536,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5582,31 +5582,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L18" t="n">
-        <v>901.6749225845923</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>566.6879222525852</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688073</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247865</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247865</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V19" t="n">
-        <v>964.1357418247865</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W19" t="n">
-        <v>794.6774731506025</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X19" t="n">
-        <v>566.6879222525852</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y19" t="n">
-        <v>566.6879222525852</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5773,31 +5773,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>901.6749225845923</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1538.857683528587</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3796.266898524761</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C22" t="n">
-        <v>3627.330715596854</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D22" t="n">
-        <v>3627.330715596854</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>4487.836581284973</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U22" t="n">
-        <v>4198.707942498531</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V22" t="n">
-        <v>4198.707942498531</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W22" t="n">
-        <v>4198.707942498531</v>
+        <v>693.9123150842264</v>
       </c>
       <c r="X22" t="n">
-        <v>4198.707942498531</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="Y22" t="n">
-        <v>3977.915363355001</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="23">
@@ -5980,34 +5980,34 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6056,28 +6056,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701563</v>
+        <v>485.4047026089406</v>
       </c>
       <c r="L24" t="n">
-        <v>1163.495507227045</v>
+        <v>732.1698305154048</v>
       </c>
       <c r="M24" t="n">
-        <v>1470.815640507007</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N24" t="n">
         <v>1843.901542059517</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687014</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>755.1831334811267</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>465.7659634441661</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>465.7659634441661</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>465.7659634441661</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550606</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003444</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.3049164052</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155922</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028591</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,40 +6238,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207832</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014296</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231267</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141871</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465305</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121734</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.52631485162</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.06055659054</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614728</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256436</v>
+        <v>190.6805289025651</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277036</v>
+        <v>339.750213104625</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341678</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.91112712663</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.59991596447</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183167</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6341,7 +6341,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
         <v>1571.258395043133</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>584.445235480708</v>
+        <v>988.7065213774121</v>
       </c>
       <c r="C28" t="n">
-        <v>415.5090525528011</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404654</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404654</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404654</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028593</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028593</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687014</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V28" t="n">
-        <v>1009.867621687014</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W28" t="n">
-        <v>994.0832512089651</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X28" t="n">
-        <v>766.0937003109477</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y28" t="n">
-        <v>766.0937003109477</v>
+        <v>988.7065213774121</v>
       </c>
     </row>
     <row r="29">
@@ -6460,25 +6460,25 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
@@ -6487,25 +6487,25 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614725</v>
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277036</v>
+        <v>339.750213104625</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341678</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.91112712663</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N30" t="n">
-        <v>1632.773754790663</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1912.31382000936</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>415.810421592522</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6651,22 +6651,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1075.210845262961</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>1042.378566915401</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>1042.378566915401</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>1042.378566915401</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>1042.378566915401</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6688,49 +6688,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6779,28 +6779,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>190.6805289025651</v>
       </c>
       <c r="K33" t="n">
-        <v>400.2445180358623</v>
+        <v>339.750213104625</v>
       </c>
       <c r="L33" t="n">
-        <v>1014.141587792751</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M33" t="n">
-        <v>1321.461721072713</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N33" t="n">
-        <v>1651.324348736746</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>144.9728543621824</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
         <v>97.21709146028584</v>
@@ -6858,16 +6858,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119729</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1387.841167119729</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1098.712528333287</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>844.0280401274</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>554.6108700904394</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>326.6213191924221</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>326.6213191924221</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,73 +6916,73 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147083</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211726</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M36" t="n">
-        <v>1427.741252113634</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>1757.603879777667</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>2037.143944996365</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
         <v>2536.440602918915</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3750.521071524739</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3718.603078877121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3718.603078877121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.859459491671</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4549.859459491671</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>4260.730820705229</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V37" t="n">
-        <v>4260.730820705229</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="W37" t="n">
-        <v>3971.313650668269</v>
+        <v>465.7659634441658</v>
       </c>
       <c r="X37" t="n">
-        <v>3971.313650668269</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>3750.521071524739</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7195,31 +7195,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>570.0299571250968</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.995055864554</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N39" t="n">
-        <v>1538.857683528586</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O39" t="n">
-        <v>2208.321444831246</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>929.7149170746092</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>675.0304288687223</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>675.0304288687223</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,40 +7390,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7438,22 +7438,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7493,19 +7493,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M42" t="n">
-        <v>1406.737288300438</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>761.0055017299131</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>761.0055017299131</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>610.8888623175774</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>1209.787631771461</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.787631771461</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>981.7980808734433</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>761.0055017299131</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1014.141587792752</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1321.461721072713</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>415.8299478944152</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>415.8299478944152</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>265.7133084820795</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>117.8002148996864</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>117.8002148996864</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>117.8002148996864</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V46" t="n">
-        <v>933.2366688293931</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W46" t="n">
-        <v>643.8194987924326</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X46" t="n">
-        <v>415.8299478944152</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>415.8299478944152</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050796</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,25 +8771,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>20.63789864135356</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.337678916511</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445214</v>
@@ -9008,13 +9008,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>145.2351313103788</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,16 +9248,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>124.3400780863221</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>124.3400780863221</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>73.53204524669945</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>43.65987261462374</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>52.49733361305211</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>104.8749102765734</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,10 +10193,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>52.49733361305212</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>213.2603911806614</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298008</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,22 +10427,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>52.49733361305213</v>
       </c>
       <c r="K33" t="n">
-        <v>113.6026921294533</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298099</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>29.47535963978197</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>297.2466435761018</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>159.0121003135239</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>124.3400780863231</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,22 +11141,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M42" t="n">
-        <v>306.1147370139961</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>219.9778004203348</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23466,10 +23466,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>160.8894508454582</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>103.0576765518768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23706,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>111.2655222663984</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.88526260290038</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>118.7593123491489</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518768</v>
       </c>
     </row>
     <row r="20">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,22 +24177,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>50.18055922996632</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>249.4916391984459</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>110.0180325826774</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>150.9694114635714</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>270.896471563323</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24891,19 +24891,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>219.6336877597433</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>119.9686158257502</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>135.6480083774868</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>79.43092547709077</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>54.23992591229899</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>63.72555179303626</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>128.5365361625296</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>14.74113413690304</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>718110.1834587394</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>718110.1834587392</v>
+        <v>718110.1834587394</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>718110.1834587393</v>
+        <v>718110.1834587394</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>718110.1834587393</v>
+        <v>718110.1834587394</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>718110.1834587392</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>718110.1834587393</v>
+        <v>718110.1834587394</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>718110.1834587394</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>718110.1834587394</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>718110.1834587394</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="16">
@@ -26316,10 +26316,10 @@
         <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
         <v>664749.4015541046</v>
@@ -26328,34 +26328,34 @@
         <v>664749.4015541048</v>
       </c>
       <c r="G2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="H2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="I2" t="n">
         <v>664749.4015541046</v>
       </c>
       <c r="J2" t="n">
+        <v>664749.4015541044</v>
+      </c>
+      <c r="K2" t="n">
+        <v>664749.401554105</v>
+      </c>
+      <c r="L2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="M2" t="n">
         <v>664749.4015541046</v>
       </c>
-      <c r="K2" t="n">
-        <v>664749.4015541049</v>
-      </c>
-      <c r="L2" t="n">
-        <v>664749.4015541045</v>
-      </c>
-      <c r="M2" t="n">
-        <v>664749.4015541049</v>
-      </c>
       <c r="N2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.4015541046</v>
       </c>
       <c r="O2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541046</v>
       </c>
       <c r="P2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541046</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7.473837513316539e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768957</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925932</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512224</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
         <v>15045.6696214391</v>
@@ -26432,19 +26432,19 @@
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143895</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.66962143899</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="L4" t="n">
         <v>15045.66962143909</v>
@@ -26475,34 +26475,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340951</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871665</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871669</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-131716.4111445357</v>
+        <v>-131716.4111445356</v>
       </c>
       <c r="C6" t="n">
-        <v>458251.468070009</v>
+        <v>458251.4680700091</v>
       </c>
       <c r="D6" t="n">
-        <v>458251.4680700079</v>
+        <v>458251.4680700089</v>
       </c>
       <c r="E6" t="n">
-        <v>32556.36950705321</v>
+        <v>31581.77824733087</v>
       </c>
       <c r="F6" t="n">
-        <v>557716.4059839491</v>
+        <v>556741.8147242276</v>
       </c>
       <c r="G6" t="n">
-        <v>557716.4059839491</v>
+        <v>556741.8147242273</v>
       </c>
       <c r="H6" t="n">
-        <v>557716.4059839491</v>
+        <v>556741.8147242275</v>
       </c>
       <c r="I6" t="n">
-        <v>557716.405983949</v>
+        <v>556741.8147242273</v>
       </c>
       <c r="J6" t="n">
-        <v>381293.1867913558</v>
+        <v>380318.5955316341</v>
       </c>
       <c r="K6" t="n">
-        <v>557716.4059839492</v>
+        <v>556741.8147242276</v>
       </c>
       <c r="L6" t="n">
-        <v>557716.4059839488</v>
+        <v>556741.8147242274</v>
       </c>
       <c r="M6" t="n">
-        <v>422915.3907501121</v>
+        <v>421940.7994903901</v>
       </c>
       <c r="N6" t="n">
-        <v>557716.4059839494</v>
+        <v>556741.8147242273</v>
       </c>
       <c r="O6" t="n">
-        <v>557716.4059839491</v>
+        <v>556741.8147242273</v>
       </c>
       <c r="P6" t="n">
-        <v>557716.4059839491</v>
+        <v>556741.8147242273</v>
       </c>
     </row>
   </sheetData>
@@ -26737,40 +26737,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170873</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545563</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,10 +26813,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545565</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>111.3076844110284</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.4565585187469</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>285.2589950511319</v>
       </c>
       <c r="X4" t="n">
-        <v>213.4691616528019</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>206.9580513844786</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.1731329773379</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>14.65885272800598</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>259.8057169294792</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>316.148879091908</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481155</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>23.87226391480431</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853692</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491421</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>62.45749068994681</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>171.2488638306983</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.296918293926865e-12</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29580,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>-1.932402314265176e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340048</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141002</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554476</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727438</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.167479908158</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630673</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405372</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338308</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.861538911987</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.371903895467</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.988205504414</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633813</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727388</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473564</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472038</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141123</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188927</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890694</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396489</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649104</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.416982047801</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983125</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736704</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.315665592305</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.152864647958</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639067</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703499</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131475</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.27496629637267</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619162</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078622</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644452</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492008</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813585</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302252</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246926</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666596</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175859</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383813</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678017</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701169</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695338</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197228</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315616</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32484,13 +32484,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647497</v>
@@ -32505,7 +32505,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32560,7 +32560,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813463</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
         <v>45.03122946298631</v>
@@ -32633,10 +32633,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
@@ -32645,7 +32645,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,13 +32657,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32709,40 +32709,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
@@ -32794,19 +32794,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710957</v>
@@ -32815,13 +32815,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
         <v>34.18755300444946</v>
@@ -32946,40 +32946,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
@@ -33031,19 +33031,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710957</v>
@@ -33052,13 +33052,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
         <v>34.18755300444946</v>
@@ -33183,40 +33183,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,7 +33259,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
@@ -33268,19 +33268,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710957</v>
@@ -33289,13 +33289,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
         <v>34.18755300444946</v>
@@ -33420,40 +33420,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,7 +33496,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
@@ -33505,19 +33505,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710957</v>
@@ -33526,13 +33526,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
         <v>34.18755300444946</v>
@@ -33657,40 +33657,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,7 +33733,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
@@ -33742,19 +33742,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710957</v>
@@ -33763,13 +33763,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343422</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435305</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060969</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492241</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530457</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116801</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898692</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770703</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.82557620313</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730064</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262941</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338906</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245901</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735649</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137343</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713967</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850087</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458882</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557983</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873162</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>269.895603597378</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.248164095453</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>434.7644551367885</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315248</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36132,19 +36132,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>331.4334930178469</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056037</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>224.1074838346387</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>376.8544460126368</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36524,19 +36524,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490674</v>
+        <v>94.40751256795882</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560245</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004665</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>438.0694836745864</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.556183571462</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507422</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36761,19 +36761,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>203.0727722009914</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560245</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004665</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>420.3538061121862</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
@@ -36998,19 +36998,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490674</v>
+        <v>94.40751256795885</v>
       </c>
       <c r="K33" t="n">
-        <v>264.1781307173927</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504665</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507422</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686869</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
@@ -37235,19 +37235,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221119</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560245</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004665</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>504.3400585076266</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507422</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
@@ -37472,19 +37472,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>309.5875389014632</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
@@ -37639,10 +37639,10 @@
         <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>331.4334930178478</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M42" t="n">
-        <v>616.5391140644624</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>88.01303278507413</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>469.2355053763591</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38110,13 +38110,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>10.73738595686864</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3354705.199745271</v>
+        <v>3359644.462594303</v>
       </c>
     </row>
     <row r="7">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>314.6757550035595</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>40.62363183383287</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1.264003285459112</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,16 +901,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>222.3311010431929</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>52.24257983163366</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>14.46389722690844</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.46389722690833</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>12.18908618918053</v>
       </c>
       <c r="G8" t="n">
-        <v>97.63529092888696</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1302,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>22.99033455509902</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>115.2741345058927</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274091</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385049</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836034</v>
       </c>
       <c r="T13" t="n">
-        <v>60.65811021293104</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>259.0330192564608</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.14731585754344</v>
       </c>
       <c r="V16" t="n">
-        <v>140.8721210574296</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="17">
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002164</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985775</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y19" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2134,10 +2134,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>136.1203916976704</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836034</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985775</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>37.03135913814508</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.64843562452313</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896924</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338504</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2715,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>16.27740963505639</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>71.20998000761323</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>100.0775685809406</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>139.153727875004</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>139.1537278750042</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>174.7430637258776</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3477,10 +3477,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>146.2787299119464</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>75.88285095973036</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>206.806426921486</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>95.02525064967696</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>210.9685212521341</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1309.714918859356</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>1309.714918859356</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>1309.714918859356</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>923.9266662611112</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>512.9407614715037</v>
+        <v>525.2632558086682</v>
       </c>
       <c r="G2" t="n">
-        <v>94.97695336969059</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>94.97695336969059</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4372,10 +4372,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1309.714918859356</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.8626623130036</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
         <v>498.8626623130036</v>
@@ -4527,13 +4527,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>726.852213211021</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>498.8626623130036</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y4" t="n">
-        <v>498.8626623130036</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1206.080506218543</v>
+        <v>1040.216121848823</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781316</v>
+        <v>671.253604908411</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>671.253604908411</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>285.4653523101668</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>278.5198515609633</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.3501188905</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.3501188905</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U5" t="n">
-        <v>2335.588333528591</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2335.588333528591</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W5" t="n">
-        <v>1982.819678258477</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X5" t="n">
-        <v>1982.819678258477</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y5" t="n">
-        <v>1592.680346282665</v>
+        <v>1426.815961912944</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4652,10 +4652,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C7" t="n">
         <v>713.5189870075369</v>
@@ -4725,7 +4725,7 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>159.5099885583426</v>
+        <v>995.9506728057379</v>
       </c>
       <c r="C8" t="n">
-        <v>159.5099885583426</v>
+        <v>995.9506728057379</v>
       </c>
       <c r="D8" t="n">
-        <v>159.5099885583426</v>
+        <v>637.6849741989874</v>
       </c>
       <c r="E8" t="n">
-        <v>159.5099885583426</v>
+        <v>637.6849741989874</v>
       </c>
       <c r="F8" t="n">
-        <v>152.5644878091392</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473041</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982761</v>
+        <v>1386.09000478155</v>
       </c>
       <c r="Y8" t="n">
-        <v>546.1098286224644</v>
+        <v>995.9506728057379</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>291.8218666715634</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>122.8220664098958</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>122.8220664098958</v>
       </c>
       <c r="I10" t="n">
         <v>99.59950625323012</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>444.0275768541694</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>327.5890571512475</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>438.7118141694737</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823788</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643324</v>
@@ -5065,28 +5065,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277035</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341677</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>245.130185042679</v>
+        <v>266.1532743881929</v>
       </c>
       <c r="C13" t="n">
-        <v>245.130185042679</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1237.725442076555</v>
+        <v>964.1357418247852</v>
       </c>
       <c r="U13" t="n">
-        <v>948.5968032901133</v>
+        <v>964.1357418247852</v>
       </c>
       <c r="V13" t="n">
-        <v>693.9123150842264</v>
+        <v>709.4512536188982</v>
       </c>
       <c r="W13" t="n">
-        <v>693.9123150842264</v>
+        <v>447.8017392184328</v>
       </c>
       <c r="X13" t="n">
-        <v>465.9227641862091</v>
+        <v>447.8017392184328</v>
       </c>
       <c r="Y13" t="n">
-        <v>245.130185042679</v>
+        <v>447.8017392184328</v>
       </c>
     </row>
     <row r="14">
@@ -5278,28 +5278,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
@@ -5317,7 +5317,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.509052552801</v>
+        <v>506.7814158330675</v>
       </c>
       <c r="C16" t="n">
-        <v>415.509052552801</v>
+        <v>506.7814158330675</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>356.6647764207317</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383385</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383385</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383385</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383385</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>1163.906948012725</v>
       </c>
       <c r="V16" t="n">
-        <v>932.915773487779</v>
+        <v>909.2224598068376</v>
       </c>
       <c r="W16" t="n">
-        <v>643.4986034508183</v>
+        <v>909.2224598068376</v>
       </c>
       <c r="X16" t="n">
-        <v>415.509052552801</v>
+        <v>909.2224598068376</v>
       </c>
       <c r="Y16" t="n">
-        <v>415.509052552801</v>
+        <v>688.4298806633074</v>
       </c>
     </row>
     <row r="17">
@@ -5503,10 +5503,10 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,10 +5515,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5597,16 +5597,16 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277035</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341677</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5673,49 +5673,49 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609669</v>
+        <v>869.308300601151</v>
       </c>
       <c r="V19" t="n">
-        <v>731.31772835508</v>
+        <v>614.6238123952641</v>
       </c>
       <c r="W19" t="n">
-        <v>441.9005583181194</v>
+        <v>325.2066423583033</v>
       </c>
       <c r="X19" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028587</v>
@@ -5752,10 +5752,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5773,7 +5773,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>485.520085263587</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>245.130185042679</v>
+        <v>496.6650364395574</v>
       </c>
       <c r="C22" t="n">
-        <v>245.130185042679</v>
+        <v>496.6650364395574</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>496.6650364395574</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>496.6650364395574</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>496.6650364395574</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903953</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383385</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609669</v>
+        <v>786.0822064765181</v>
       </c>
       <c r="V22" t="n">
-        <v>731.31772835508</v>
+        <v>786.0822064765181</v>
       </c>
       <c r="W22" t="n">
-        <v>693.9123150842264</v>
+        <v>496.6650364395574</v>
       </c>
       <c r="X22" t="n">
-        <v>465.9227641862091</v>
+        <v>496.6650364395574</v>
       </c>
       <c r="Y22" t="n">
-        <v>245.130185042679</v>
+        <v>496.6650364395574</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,13 +6001,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6071,19 +6071,19 @@
         <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>485.4047026089406</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>732.1698305154048</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>324.3840174432668</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>155.4478345153597</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>155.4478345153597</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>155.4478345153597</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>155.4478345153597</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>155.4478345153597</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028587</v>
@@ -6147,52 +6147,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150543</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>726.8250614170369</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>506.0324822735066</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805469</v>
@@ -6223,34 +6223,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231265</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>190.6805289025651</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>339.750213104625</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>953.6472828615138</v>
+        <v>709.4934589365137</v>
       </c>
       <c r="M27" t="n">
-        <v>1722.015429253975</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>988.7065213774121</v>
+        <v>527.8045051785811</v>
       </c>
       <c r="C28" t="n">
-        <v>972.2646934632137</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508779</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799365</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557903</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.499100520942</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.499100520942</v>
+        <v>748.5970843221112</v>
       </c>
       <c r="Y28" t="n">
-        <v>988.7065213774121</v>
+        <v>527.8045051785811</v>
       </c>
     </row>
     <row r="29">
@@ -6460,31 +6460,31 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>339.750213104625</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L30" t="n">
-        <v>953.6472828615138</v>
+        <v>709.4934589365137</v>
       </c>
       <c r="M30" t="n">
-        <v>1722.015429253975</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>564.4843764226426</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
         <v>507.4972331799365</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1397.827817445842</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1197.907807361394</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>974.1223921508997</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>974.1223921508997</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>974.1223921508997</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>974.1223921508997</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>746.1328412528824</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>746.1328412528824</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6727,10 +6727,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6779,22 +6779,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>190.6805289025651</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>339.750213104625</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L33" t="n">
-        <v>953.6472828615138</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M33" t="n">
-        <v>1722.015429253975</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P33" t="n">
         <v>2536.440602918915</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -7022,16 +7022,16 @@
         <v>287.7778528277034</v>
       </c>
       <c r="L36" t="n">
-        <v>563.7235867775516</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M36" t="n">
-        <v>1332.091733170013</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P36" t="n">
         <v>2536.440602918915</v>
@@ -7125,19 +7125,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>755.1831334811264</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>465.7659634441658</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
         <v>97.21709146028584</v>
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>570.0299571250968</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L39" t="n">
-        <v>816.7950850315608</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M39" t="n">
-        <v>1124.115218311523</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N39" t="n">
-        <v>1453.977845975555</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1311.19182271596</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1087.406407505466</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1087.406407505466</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>1087.406407505466</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>797.9892374685055</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>797.9892374685055</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>577.1966583249754</v>
       </c>
     </row>
     <row r="41">
@@ -7390,34 +7390,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7435,7 +7435,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>563.7235867775516</v>
+        <v>709.4934589365137</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7727,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7833,19 +7833,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U46" t="n">
-        <v>1075.21084526296</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>820.5263570570736</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>531.109187020113</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
         <v>318.0096706038159</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,25 +8774,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.337678916511</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>124.3400780863226</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928316</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,16 +9248,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>29.47535963978191</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229573</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231148</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445216</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>73.53204524669945</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,13 +9728,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9953,25 +9953,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>52.49733361305211</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>176.7176547498445</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,22 +10193,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>52.49733361305212</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>176.7176547498445</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>52.49733361305213</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,16 +10436,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>124.3400780863226</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10670,10 +10670,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>29.47535963978197</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>124.3400780863226</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>159.0121003135239</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>124.3400780863226</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928316</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11144,10 +11144,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>29.47535963978208</v>
+        <v>176.7176547498445</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>160.8894508454582</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985775</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>27.4899790801303</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836034</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>286.090036541034</v>
       </c>
       <c r="V16" t="n">
-        <v>111.2655222663984</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338692</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>103.0576765518768</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>30.37317676570726</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>249.4916391984459</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>91.26539274301311</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836034</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985775</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,22 +24603,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>150.9694114635714</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>154.4996753814239</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>9.886783822852209</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>82.39383318338503</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>50.96659166315953</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>79.43092547709077</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,7 +25566,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>122.0379590238729</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25836,22 +25836,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>14.74113413690327</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>130.6844047393602</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>14.74113413690304</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>718110.1834587393</v>
+        <v>718110.1834587392</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>718110.1834587394</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>718110.1834587394</v>
+        <v>718110.1834587392</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>718110.1834587394</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>718110.1834587393</v>
+        <v>718110.1834587392</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>718110.1834587393</v>
+        <v>718110.1834587394</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
+        <v>697885.5043846411</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.5043846412</v>
-      </c>
-      <c r="D2" t="n">
-        <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
         <v>664749.4015541046</v>
       </c>
       <c r="F2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="G2" t="n">
+        <v>664749.4015541045</v>
+      </c>
+      <c r="H2" t="n">
         <v>664749.4015541048</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="J2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="K2" t="n">
         <v>664749.4015541049</v>
-      </c>
-      <c r="H2" t="n">
-        <v>664749.4015541049</v>
-      </c>
-      <c r="I2" t="n">
-        <v>664749.4015541046</v>
-      </c>
-      <c r="J2" t="n">
-        <v>664749.4015541044</v>
-      </c>
-      <c r="K2" t="n">
-        <v>664749.401554105</v>
       </c>
       <c r="L2" t="n">
         <v>664749.4015541048</v>
       </c>
       <c r="M2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="N2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="O2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="P2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.401554105</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143893</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143901</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.669621439</v>
       </c>
       <c r="K4" t="n">
         <v>15045.66962143909</v>
@@ -26453,10 +26453,10 @@
         <v>15045.66962143909</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143903</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="P4" t="n">
         <v>15045.6696214391</v>
@@ -26472,31 +26472,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26505,10 +26505,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-131716.4111445356</v>
+        <v>-131716.4111445354</v>
       </c>
       <c r="C6" t="n">
+        <v>458251.468070009</v>
+      </c>
+      <c r="D6" t="n">
         <v>458251.4680700091</v>
       </c>
-      <c r="D6" t="n">
-        <v>458251.4680700089</v>
-      </c>
       <c r="E6" t="n">
-        <v>31581.77824733087</v>
+        <v>32458.91038108051</v>
       </c>
       <c r="F6" t="n">
-        <v>556741.8147242276</v>
+        <v>557618.946857977</v>
       </c>
       <c r="G6" t="n">
-        <v>556741.8147242273</v>
+        <v>557618.9468579767</v>
       </c>
       <c r="H6" t="n">
-        <v>556741.8147242275</v>
+        <v>557618.946857977</v>
       </c>
       <c r="I6" t="n">
-        <v>556741.8147242273</v>
+        <v>557618.946857977</v>
       </c>
       <c r="J6" t="n">
-        <v>380318.5955316341</v>
+        <v>381195.7276653839</v>
       </c>
       <c r="K6" t="n">
-        <v>556741.8147242276</v>
+        <v>557618.946857977</v>
       </c>
       <c r="L6" t="n">
-        <v>556741.8147242274</v>
+        <v>557618.9468579771</v>
       </c>
       <c r="M6" t="n">
-        <v>421940.7994903901</v>
+        <v>422817.9316241397</v>
       </c>
       <c r="N6" t="n">
-        <v>556741.8147242273</v>
+        <v>557618.946857977</v>
       </c>
       <c r="O6" t="n">
-        <v>556741.8147242273</v>
+        <v>557618.9468579771</v>
       </c>
       <c r="P6" t="n">
-        <v>556741.8147242273</v>
+        <v>557618.9468579773</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541004</v>
@@ -26773,10 +26773,10 @@
         <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26792,13 +26792,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26813,10 +26813,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26825,7 +26825,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.926370499018</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>99.10841501723553</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>111.3076844110284</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>285.2589950511319</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>165.9828178131687</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,16 +27621,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>191.4530689776021</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.1731329773379</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>152.7829238717194</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.65885272800598</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>394.6869595525309</v>
       </c>
       <c r="G8" t="n">
-        <v>316.148879091908</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>111.9752872372392</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28070,13 +28070,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>171.2488638306983</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-2.955857780762017e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>-1.056421872075505e-13</v>
       </c>
     </row>
     <row r="26">
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-2.103206497849897e-12</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
         <v>34.18755300444946</v>
@@ -31773,13 +31773,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647497</v>
@@ -31794,7 +31794,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31849,7 +31849,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
         <v>464.5362854813463</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
         <v>45.03122946298631</v>
@@ -31922,10 +31922,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
         <v>234.725964217132</v>
@@ -31934,7 +31934,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,13 +31946,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
         <v>34.18755300444946</v>
@@ -32247,13 +32247,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647497</v>
@@ -32268,7 +32268,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32323,7 +32323,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813463</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
         <v>45.03122946298631</v>
@@ -32396,10 +32396,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
         <v>234.725964217132</v>
@@ -32408,7 +32408,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,13 +32420,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,13 +35020,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
@@ -35421,19 +35421,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>331.4334930178474</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556545</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187468</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556545</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187468</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35895,19 +35895,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>278.7330645958063</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734237</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556545</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187468</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>350.3150673110541</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504664</v>
@@ -36217,10 +36217,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556545</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187468</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>224.1074838346387</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560244</v>
@@ -36448,13 +36448,13 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556545</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187468</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.40751256795882</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>425.9753597058689</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
         <v>88.01303278507416</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415062</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>203.0727722009914</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>425.9753597058689</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
         <v>88.01303278507416</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.40751256795885</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879393</v>
@@ -37156,16 +37156,16 @@
         <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>331.4334930178474</v>
       </c>
       <c r="Q33" t="n">
         <v>88.01303278507416</v>
@@ -37390,10 +37390,10 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>278.7330645958064</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37402,7 +37402,7 @@
         <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>331.4334930178474</v>
       </c>
       <c r="Q36" t="n">
         <v>88.01303278507416</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>309.5875389014632</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>331.4334930178474</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>278.7330645958064</v>
+        <v>425.9753597058689</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38110,16 +38110,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
